--- a/files/menus/arrowsmith_grill/grill_arrowsmith.xlsx
+++ b/files/menus/arrowsmith_grill/grill_arrowsmith.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\arrowsmith_grill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7FE8E1-C6A3-4E30-BB01-517940F9AA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958FBF65-A60B-4861-B033-0A9894116B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="2265" windowWidth="24825" windowHeight="14220" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,39 +53,15 @@
     <t>NA</t>
   </si>
   <si>
-    <t>waffles</t>
-  </si>
-  <si>
-    <t>Egg, Sausage</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
     <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
   </si>
   <si>
-    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
-  </si>
-  <si>
     <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
   </si>
   <si>
     <t>Allergens</t>
   </si>
   <si>
-    <t>Wheat, sulphites, egg.</t>
-  </si>
-  <si>
-    <t>No known priority allergens</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>GF,VEG</t>
-  </si>
-  <si>
     <t>Nutrition Label</t>
   </si>
   <si>
@@ -108,13 +84,64 @@
   </si>
   <si>
     <t>Wheat, sulphites.</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>Island City Seeded Bun</t>
+  </si>
+  <si>
+    <t>Hot Dog</t>
+  </si>
+  <si>
+    <t>Sesame Burger Bun / Beef Patty[Beef, water, toasted wheat crumbs, soy protein, flavour, salt, spices, spice extracts, onion, garlic] / Pickles / Cheddar Cheese / Red Onion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy, sesame, wheat, milk, eggs, gluten. Bun made in a facility that also processes: crustacean, shellfish, fish, sulphites, eggs, mustard. </t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Beef_Burger</t>
+  </si>
+  <si>
+    <t>Sesame Burger Bun / Spicy Black Bean Patty[Textured Soy Protein, Cooked Black Beans, Cooked Brown Rice, Onion, Water, Corn Oil, Egg Whites, Diced Tomatoes, Roasted Corn, Bulgur Wheat, Green Chiles, Modified Milk Ingredients, Spices, Yeast Extract, Natural and Artificial Flavours, Lactic Acid, Calcium Phosphate] / Pickles / Cheddar Cheese / Red Onion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy, wheat, milk, eggs, gluten. Bun made in a facility that also processes: crustacean, shellfish, fish, sulphites, eggs, mustard. </t>
+  </si>
+  <si>
+    <t>BC,VEG</t>
+  </si>
+  <si>
+    <t>Veggie_Burger</t>
+  </si>
+  <si>
+    <t>Bun / Chicken and Beef weiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat.  Bun made in a facility that also processes: crustacean, shellfish, fish, sulphites, eggs, mustard. </t>
+  </si>
+  <si>
+    <t>Island City Hot Dog Bun</t>
+  </si>
+  <si>
+    <t>BC, DF</t>
+  </si>
+  <si>
+    <t>Hot_Dog</t>
+  </si>
+  <si>
+    <t>Wheat, milk.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +151,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,8 +185,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -172,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
@@ -484,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4FEC9-4E15-443B-89A8-5C76E19963E8}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -517,90 +551,110 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/arrowsmith_grill/grill_arrowsmith.xlsx
+++ b/files/menus/arrowsmith_grill/grill_arrowsmith.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\arrowsmith_grill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958FBF65-A60B-4861-B033-0A9894116B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7107B0E9-C5B9-4222-9A92-D7041DAFDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="15360" yWindow="780" windowWidth="21285" windowHeight="13215" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,12 +53,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
-  </si>
-  <si>
-    <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
-  </si>
-  <si>
     <t>Allergens</t>
   </si>
   <si>
@@ -83,21 +77,12 @@
     <t>VEG</t>
   </si>
   <si>
-    <t>Wheat, sulphites.</t>
-  </si>
-  <si>
-    <t>placeholder</t>
-  </si>
-  <si>
     <t>Island City Seeded Bun</t>
   </si>
   <si>
     <t>Hot Dog</t>
   </si>
   <si>
-    <t>Sesame Burger Bun / Beef Patty[Beef, water, toasted wheat crumbs, soy protein, flavour, salt, spices, spice extracts, onion, garlic] / Pickles / Cheddar Cheese / Red Onion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soy, sesame, wheat, milk, eggs, gluten. Bun made in a facility that also processes: crustacean, shellfish, fish, sulphites, eggs, mustard. </t>
   </si>
   <si>
@@ -107,9 +92,6 @@
     <t>Beef_Burger</t>
   </si>
   <si>
-    <t>Sesame Burger Bun / Spicy Black Bean Patty[Textured Soy Protein, Cooked Black Beans, Cooked Brown Rice, Onion, Water, Corn Oil, Egg Whites, Diced Tomatoes, Roasted Corn, Bulgur Wheat, Green Chiles, Modified Milk Ingredients, Spices, Yeast Extract, Natural and Artificial Flavours, Lactic Acid, Calcium Phosphate] / Pickles / Cheddar Cheese / Red Onion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soy, wheat, milk, eggs, gluten. Bun made in a facility that also processes: crustacean, shellfish, fish, sulphites, eggs, mustard. </t>
   </si>
   <si>
@@ -135,6 +117,27 @@
   </si>
   <si>
     <t>Wheat, milk.</t>
+  </si>
+  <si>
+    <t>Sesame Burger Bun / Beef Patty / Pickles / Cheddar Cheese / Red Onion</t>
+  </si>
+  <si>
+    <t>Sesame Burger Bun / Spicy Black Bean Patty / Pickles / Cheddar Cheese / Red Onion</t>
+  </si>
+  <si>
+    <t>Wheat, gluten, milk, eggs.</t>
+  </si>
+  <si>
+    <t>Macaroni / Cream / Flour / Cheese Blend / Egg / Breading</t>
+  </si>
+  <si>
+    <t>Mozzarella / Flour / Eggs / Seasoned Breading / Salt</t>
+  </si>
+  <si>
+    <t>Mac_&amp;_Cheese_Bites</t>
+  </si>
+  <si>
+    <t>Mozza_Sticks</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -551,110 +554,110 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
